--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -3,21 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C60BD4-16C4-4D57-AE7C-BA58DB611C3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E427740-9853-49C3-A1D8-956F7AD02C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38480" yWindow="80" windowWidth="18480" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LEVEL0001-0004" sheetId="1" r:id="rId1"/>
+    <sheet name="LEVEL0005-0007" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,14 +67,6 @@
   </si>
   <si>
     <t>放置收益每秒数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -102,162 +93,179 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>reward_id</t>
+    <t>kind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC1002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL0003</t>
+  </si>
+  <si>
+    <t>NPC1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入关卡的要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requires{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家要达到什么级别
+才能进入这个关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL0002</t>
+  </si>
+  <si>
+    <t>LEVEL0004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW10002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引奖励表配置ID
+填null表示没有奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL0005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL0006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL0007</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>output: level_configs.json
-index: level_id
+index: levelID
 header_row: 5
 first_data_row: 7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>kind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC1002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL0003</t>
-  </si>
-  <si>
-    <t>NPC1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>born_configs[</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_reward[</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_quantity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入关卡的要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>requires{</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>player_level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家要达到什么级别
-才能进入这个关卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL0002</t>
-  </si>
-  <si>
-    <t>LEVEL0004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW10002</t>
+    <t>levelID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornConfigs[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardID?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoReward?[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resQuantity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIAMOND</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>索引奖励表配置ID
-填null表示没有奖励</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL0005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL0006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEVEL0007</t>
+填null或空白表示没有奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置收益资源类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>more?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +383,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,12 +399,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -728,16 +739,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.54296875" style="5" bestFit="1" customWidth="1"/>
@@ -755,37 +766,37 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="42" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -796,22 +807,22 @@
         <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -827,60 +838,63 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,13 +902,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
@@ -912,278 +926,245 @@
         <v>7</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>10</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>100</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>10</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="N8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>10</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="13">
+        <v>5</v>
+      </c>
+      <c r="J10" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="K10" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="L10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="13">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>10</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="13">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="5">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>10</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="14">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="14">
-        <v>5</v>
-      </c>
-      <c r="J10" s="14">
+    </row>
+    <row r="15" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="13">
         <v>1</v>
       </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N11" s="14"/>
-      <c r="O11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N12" s="14"/>
-      <c r="O12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="14">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N13" s="14"/>
-      <c r="O13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <v>10</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
+      <c r="Q15" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
@@ -1197,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9630D78F-1EAC-4001-872D-2DA079242299}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1224,36 +1205,36 @@
     <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="3" spans="1:17" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="42" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1264,22 +1245,22 @@
         <v>10</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1295,60 +1276,63 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1356,13 +1340,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
@@ -1386,15 +1370,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
@@ -1403,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1421,33 +1405,33 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P7" s="5">
         <v>6</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
@@ -1456,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1474,33 +1458,33 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P8" s="5">
         <v>14</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5">
         <v>7</v>
@@ -1509,74 +1493,74 @@
         <v>1000</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>10</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="12">
         <v>15</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="12">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
         <v>0</v>
       </c>
-      <c r="J9" s="14">
+      <c r="L10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="12">
         <v>10</v>
       </c>
-      <c r="K9" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="14">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="14">
-        <v>5</v>
-      </c>
-      <c r="J10" s="14">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="12">
         <v>10</v>
       </c>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N11" s="14"/>
-      <c r="O11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>16</v>
+      <c r="Q11" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1588,17 +1572,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADFAA9D-8DAA-44BE-ADBA-395655739DE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BFE5CD-F2E3-4D60-A4E4-EBDA52CA3153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38480" yWindow="80" windowWidth="18480" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>interval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>requires{</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -134,22 +130,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bornConfigs[</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NPCID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rewardID?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoReward?[</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,10 +143,6 @@
   </si>
   <si>
     <t>DIAMOND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>more?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -208,6 +188,46 @@
   </si>
   <si>
     <t>每秒数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORN02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requires {</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornConfigs [</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardID ?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoReward ? [</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># bornPoints [</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -260,13 +280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,29 +323,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,429 +692,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="2.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.26953125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.26953125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.26953125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+    <row r="1" spans="1:26" ht="80" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="P5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="Y5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="Z5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>10</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>10</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>10</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>10</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>10</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="W14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>47</v>
+      <c r="Z15" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>10</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>100</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>10</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="10">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>10</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="10">
-        <v>5</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>10</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="N3:Q3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
